--- a/biology/Mycologie/Cèpe_citron/Cèpe_citron.xlsx
+++ b/biology/Mycologie/Cèpe_citron/Cèpe_citron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_citron</t>
+          <t>Cèpe_citron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus edulis f. citrinus, Boletus venturii
-Boletus edulis f. citrinus, auparavant Boletus venturii, le Cèpe citron[1], est la forme à chapeau citrin du Cèpe de Bordeaux (Boletus edulis) appartenant au genre Boletus dans la famille des Boletaceae. Érigée auparavant en tant qu'espèce indépendante, cette forme rare se distingue du B. edulis type par son chapeau jaune citron.
+Boletus edulis f. citrinus, auparavant Boletus venturii, le Cèpe citron, est la forme à chapeau citrin du Cèpe de Bordeaux (Boletus edulis) appartenant au genre Boletus dans la famille des Boletaceae. Érigée auparavant en tant qu'espèce indépendante, cette forme rare se distingue du B. edulis type par son chapeau jaune citron.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_citron</t>
+          <t>Cèpe_citron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,62 +524,275 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Boletus edulis f. citrinus (Pelt. ex E.-J. Gilbert) Vassilkov 1966[2],[3].
-Il a été initialement classée dans le genre Boletus sous le basionyme Boletus edulis var. citrinus Pelt. ex E.-J. Gilbert[3].
-Synonymes
-Boletus edulis f. citrinus a pour synonymes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Boletus edulis f. citrinus (Pelt. ex E.-J. Gilbert) Vassilkov 1966,.
+Il a été initialement classée dans le genre Boletus sous le basionyme Boletus edulis var. citrinus Pelt. ex E.-J. Gilbert.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cèpe_citron</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_citron</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus edulis f. citrinus a pour synonymes :
 Tubiporus albus Paulet
 Boletus citrinus A. Venturi (1860
 Suillus citrinus Kuntze (1898)
 Boletus edulis var. citrinus Peltereau ex E.-J. Gilbert (1931)
 Boletus venturii Bon (1986)
-Phylogénie
-Le Cèpe citron était d'abord considéré comme une espèce indépendante sous le nom de Boletus venturii, avant que les analyses génétiques ne révèlent sa conspécificité avec Boletus edulis, ce qui a eu pour conséquence de le faire basculer au rang de forme de ce dernier[4].
-Étymologie
-L'épithète spécifique de l'un de ses taxons, venturii, lui a été donnée en l'honneur du mycologue italien Carlo Antonio Venturi (d) (1806-1864) qui a initialement décrit cette espèce en 1863 sous le taxon Boletus citrinus, tandis que celui de son taxon actuel "citrinus" fait réfèrence à la couleur jaune citrin du chapeau cette forme.
-Publication originale
-Marcel Bon, « Novitates. Validations et taxons nouveaux », Documents mycologiques, France, vol. 17, no 65,‎ 1986, p. 51-56 (ISSN 0291-8420, lire en ligne, consulté le 9 février 2023).
-Noms vulgaires et vernaculaires
-Cèpe citron, Cèpe de Venturi.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>C%C3%A8pe_citron</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cèpe_citron</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_citron</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cèpe citron était d'abord considéré comme une espèce indépendante sous le nom de Boletus venturii, avant que les analyses génétiques ne révèlent sa conspécificité avec Boletus edulis, ce qui a eu pour conséquence de le faire basculer au rang de forme de ce dernier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cèpe_citron</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_citron</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique de l'un de ses taxons, venturii, lui a été donnée en l'honneur du mycologue italien Carlo Antonio Venturi (d) (1806-1864) qui a initialement décrit cette espèce en 1863 sous le taxon Boletus citrinus, tandis que celui de son taxon actuel "citrinus" fait réfèrence à la couleur jaune citrin du chapeau cette forme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cèpe_citron</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_citron</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Marcel Bon, « Novitates. Validations et taxons nouveaux », Documents mycologiques, France, vol. 17, no 65,‎ 1986, p. 51-56 (ISSN 0291-8420, lire en ligne, consulté le 9 février 2023).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cèpe_citron</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_citron</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cèpe citron, Cèpe de Venturi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cèpe_citron</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_citron</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Boletus edulis f. citrinus, le Cèpe citron, sont les suivantes :
-Son chapeau est jaune citrin plus ou moins pâle à jaune citron, teinte assez uniforme jusqu'à un âge avancé, avec quelques taches ou traînées brun roussâtre (peu changeant) à la fin ; revêtement lisse à finement velouté ou un peu cabossé-ruguleux[5].
-L'hyménophore présente des tubes et pores blancs, puis crème jaunâtre, jaunes, jaune-vert[5].
-Son stipe est claviforme ou un peu ventru, blanchâtre puis beige à brunâtre pâle ; fin réseau blanc sur la partie supérieure[5].
-La chair est blanche à blanchâtre, parfois rosissante sous le revêtement ou à d'autres endroits du chapeau, immuable ailleurs[5]. Sa saveur et son odeur sont identiques au Cèpe de Bordeaux.
-Caractéristiques microscopiques
-Ses spores mesurent 12 à 15,5 μm x 4,5 à 5,5 μm[5].
+Son chapeau est jaune citrin plus ou moins pâle à jaune citron, teinte assez uniforme jusqu'à un âge avancé, avec quelques taches ou traînées brun roussâtre (peu changeant) à la fin ; revêtement lisse à finement velouté ou un peu cabossé-ruguleux.
+L'hyménophore présente des tubes et pores blancs, puis crème jaunâtre, jaunes, jaune-vert.
+Son stipe est claviforme ou un peu ventru, blanchâtre puis beige à brunâtre pâle ; fin réseau blanc sur la partie supérieure.
+La chair est blanche à blanchâtre, parfois rosissante sous le revêtement ou à d'autres endroits du chapeau, immuable ailleurs. Sa saveur et son odeur sont identiques au Cèpe de Bordeaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cèpe_citron</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_citron</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 12 à 15,5 μm x 4,5 à 5,5 μm.
 </t>
         </is>
       </c>
